--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4321679.873376101</v>
+        <v>4314506.58466582</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702199</v>
+        <v>2346514.7357022</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>275.3054140077786</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023554</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
-        <v>158.1598186411454</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>205.0481221176458</v>
@@ -709,16 +709,16 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>134.1974060373678</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>117.9203400363092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>29.71014592494667</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.83013367771037</v>
+        <v>79.94406846379002</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.1819171385219</v>
       </c>
       <c r="S5" t="n">
-        <v>159.1694001152469</v>
+        <v>198.2506096409305</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3078446008425</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>130.6749864732299</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -989,10 +989,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0906518175546</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129662</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141301</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>123.1079026196692</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>114.8246526413962</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>167.7613787255179</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>115.3392102682832</v>
       </c>
     </row>
     <row r="8">
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>322.2673389873225</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>172.7538595767113</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,16 +1305,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>6.908481403325754</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>208.3423105940807</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274097</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497999</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87.80122484518715</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>219.4142293066755</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274076</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.6780064526356</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>119.0929986500079</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701368</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065128</v>
       </c>
       <c r="U19" t="n">
-        <v>205.5950156977305</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2177,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>6.36137046637507</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>139.8084418793357</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2371,7 +2371,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>189.8791026734977</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>261.4251119965398</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113175</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,16 +2772,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>66.90445977359242</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274061</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>3.193519769810918</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>115.526976800218</v>
       </c>
     </row>
     <row r="32">
@@ -3034,10 +3034,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>9.086528825730211</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>85.39633870205202</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3325,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>67.01182155456451</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>169.7438101404427</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>145.1054125963047</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>81.23424437140393</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.930370072263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417115</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274178</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.482788338502</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V41" t="n">
         <v>327.752258470135</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>115.526976800218</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>79.29502378134278</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896929</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.482788338502</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560552</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>74.96564483286852</v>
+        <v>57.64843562452447</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>683.2303018926189</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="C2" t="n">
-        <v>683.2303018926189</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="D2" t="n">
-        <v>683.2303018926189</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="E2" t="n">
-        <v>683.2303018926189</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="F2" t="n">
-        <v>404.2843284558962</v>
+        <v>244.5269358890827</v>
       </c>
       <c r="G2" t="n">
-        <v>388.9692289333512</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H2" t="n">
         <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
         <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293416</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S2" t="n">
-        <v>962.1762753293416</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="T2" t="n">
-        <v>962.1762753293416</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="U2" t="n">
-        <v>962.1762753293416</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="V2" t="n">
-        <v>683.2303018926189</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="W2" t="n">
-        <v>683.2303018926189</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="X2" t="n">
-        <v>683.2303018926189</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="Y2" t="n">
-        <v>683.2303018926189</v>
+        <v>529.5587134138201</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>168.6270790693035</v>
+        <v>568.8504943034676</v>
       </c>
       <c r="C3" t="n">
-        <v>168.6270790693035</v>
+        <v>568.8504943034676</v>
       </c>
       <c r="D3" t="n">
-        <v>168.6270790693035</v>
+        <v>419.9160846422163</v>
       </c>
       <c r="E3" t="n">
-        <v>168.6270790693035</v>
+        <v>419.9160846422163</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618843</v>
+        <v>273.3815266691013</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618843</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>114.7965710887686</v>
+        <v>45.1838775027733</v>
       </c>
       <c r="L3" t="n">
-        <v>360.9520376814696</v>
+        <v>291.3393440954743</v>
       </c>
       <c r="M3" t="n">
-        <v>634.3469862468014</v>
+        <v>564.7342926608062</v>
       </c>
       <c r="N3" t="n">
-        <v>907.7419348121332</v>
+        <v>838.1292412261381</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121332</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P3" t="n">
         <v>1104.626054809422</v>
@@ -4436,25 +4436,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>932.6220420606003</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="T3" t="n">
-        <v>730.7421420887096</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="U3" t="n">
-        <v>730.7421420887096</v>
+        <v>704.4034296947482</v>
       </c>
       <c r="V3" t="n">
-        <v>495.5900338569668</v>
+        <v>704.4034296947482</v>
       </c>
       <c r="W3" t="n">
-        <v>495.5900338569668</v>
+        <v>704.4034296947482</v>
       </c>
       <c r="X3" t="n">
-        <v>287.738533651434</v>
+        <v>704.4034296947482</v>
       </c>
       <c r="Y3" t="n">
-        <v>168.6270790693035</v>
+        <v>704.4034296947482</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618843</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492714</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>389.7035012608083</v>
+        <v>813.740851166629</v>
       </c>
       <c r="C5" t="n">
-        <v>389.7035012608083</v>
+        <v>813.740851166629</v>
       </c>
       <c r="D5" t="n">
-        <v>389.7035012608083</v>
+        <v>455.4751525598785</v>
       </c>
       <c r="E5" t="n">
-        <v>389.7035012608083</v>
+        <v>455.4751525598785</v>
       </c>
       <c r="F5" t="n">
-        <v>382.7580005116048</v>
+        <v>448.529651810675</v>
       </c>
       <c r="G5" t="n">
-        <v>367.7780675038165</v>
+        <v>367.7780675038164</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771389</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771389</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380462</v>
+        <v>57.64391735380377</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456891</v>
+        <v>220.1747338456873</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039998</v>
+        <v>474.0852112039967</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494191</v>
+        <v>773.2160860494146</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635726</v>
+        <v>1062.55521363572</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293133</v>
+        <v>1290.582309293126</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935886</v>
+        <v>1447.523776935877</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385695</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385695</v>
+        <v>1366.762647488188</v>
       </c>
       <c r="S5" t="n">
-        <v>1327.381351552112</v>
+        <v>1166.509506436743</v>
       </c>
       <c r="T5" t="n">
-        <v>1327.381351552112</v>
+        <v>1166.509506436743</v>
       </c>
       <c r="U5" t="n">
-        <v>1073.535043874493</v>
+        <v>1166.509506436743</v>
       </c>
       <c r="V5" t="n">
-        <v>742.4721565309223</v>
+        <v>1166.509506436743</v>
       </c>
       <c r="W5" t="n">
-        <v>389.7035012608083</v>
+        <v>813.740851166629</v>
       </c>
       <c r="X5" t="n">
-        <v>389.7035012608083</v>
+        <v>813.740851166629</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.7035012608083</v>
+        <v>813.740851166629</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>733.8473195349193</v>
+        <v>658.9226223886625</v>
       </c>
       <c r="C6" t="n">
-        <v>733.8473195349193</v>
+        <v>484.4695931075355</v>
       </c>
       <c r="D6" t="n">
-        <v>584.912909873668</v>
+        <v>335.5351834462842</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6754548682126</v>
+        <v>176.2977284408287</v>
       </c>
       <c r="F6" t="n">
-        <v>279.1408968950975</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="G6" t="n">
-        <v>140.6654910187797</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="H6" t="n">
-        <v>29.76317046771389</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771389</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="J6" t="n">
-        <v>29.76317046771389</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="K6" t="n">
-        <v>111.4085491144812</v>
+        <v>195.5446164760263</v>
       </c>
       <c r="L6" t="n">
-        <v>111.4085491144812</v>
+        <v>479.8626256221621</v>
       </c>
       <c r="M6" t="n">
-        <v>479.7277836524406</v>
+        <v>581.0776013314394</v>
       </c>
       <c r="N6" t="n">
-        <v>848.0470181904001</v>
+        <v>949.3968358693965</v>
       </c>
       <c r="O6" t="n">
-        <v>1156.36189956272</v>
+        <v>1257.711717241715</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.80870570669</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385695</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707617</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.174372107486</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="T6" t="n">
-        <v>1234.174372107486</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="U6" t="n">
-        <v>1109.822955319941</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="V6" t="n">
-        <v>1109.822955319941</v>
+        <v>1253.006415153942</v>
       </c>
       <c r="W6" t="n">
-        <v>1109.822955319941</v>
+        <v>998.7690584257407</v>
       </c>
       <c r="X6" t="n">
-        <v>1109.822955319941</v>
+        <v>790.9175582202079</v>
       </c>
       <c r="Y6" t="n">
-        <v>902.0626565549874</v>
+        <v>790.9175582202079</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145.7476680852858</v>
+        <v>198.6993533956206</v>
       </c>
       <c r="C7" t="n">
-        <v>145.7476680852858</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="D7" t="n">
-        <v>145.7476680852858</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771389</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771389</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771389</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771389</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771389</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771389</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888197</v>
+        <v>32.09990175888134</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611342</v>
+        <v>90.61654790611223</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236699</v>
+        <v>162.7032697236681</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400035</v>
+        <v>238.5105468400012</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057964</v>
+        <v>292.5145415057935</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918696</v>
+        <v>315.2036061918662</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918696</v>
+        <v>315.2036061918662</v>
       </c>
       <c r="R7" t="n">
-        <v>145.7476680852858</v>
+        <v>315.2036061918662</v>
       </c>
       <c r="S7" t="n">
-        <v>145.7476680852858</v>
+        <v>315.2036061918662</v>
       </c>
       <c r="T7" t="n">
-        <v>145.7476680852858</v>
+        <v>315.2036061918662</v>
       </c>
       <c r="U7" t="n">
-        <v>145.7476680852858</v>
+        <v>315.2036061918662</v>
       </c>
       <c r="V7" t="n">
-        <v>145.7476680852858</v>
+        <v>315.2036061918662</v>
       </c>
       <c r="W7" t="n">
-        <v>145.7476680852858</v>
+        <v>315.2036061918662</v>
       </c>
       <c r="X7" t="n">
-        <v>145.7476680852858</v>
+        <v>315.2036061918662</v>
       </c>
       <c r="Y7" t="n">
-        <v>145.7476680852858</v>
+        <v>198.6993533956206</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1173.337372245452</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="C8" t="n">
-        <v>804.3748553050402</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="D8" t="n">
-        <v>804.3748553050402</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4846,10 +4846,10 @@
         <v>1563.476704221264</v>
       </c>
       <c r="X8" t="n">
-        <v>1563.476704221264</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y8" t="n">
-        <v>1173.337372245452</v>
+        <v>799.8716139843721</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.6822058285749</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>580.2158906240413</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>433.3259431261309</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>264.3261428644633</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>106.5777702969935</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>517.6822058285749</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>517.6822058285749</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>517.6822058285749</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>517.6822058285749</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>517.6822058285749</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5020,34 +5020,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,28 +5059,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.130185042679</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>1077.365725820247</v>
       </c>
       <c r="V13" t="n">
-        <v>844.0280401273991</v>
+        <v>822.6812376143602</v>
       </c>
       <c r="W13" t="n">
-        <v>554.6108700904385</v>
+        <v>822.6812376143602</v>
       </c>
       <c r="X13" t="n">
-        <v>554.6108700904385</v>
+        <v>594.6916867163428</v>
       </c>
       <c r="Y13" t="n">
-        <v>333.8182909469084</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="14">
@@ -5257,28 +5257,28 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5293,34 +5293,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>410.8745301331624</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115523</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>506.3210135240263</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1267.545208887397</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W16" t="n">
-        <v>955.1031435655738</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X16" t="n">
-        <v>727.1135926675564</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.3210135240263</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>410.8745301331619</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1661.954360834045</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
-        <v>956.3840188812231</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>701.6995306753363</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>412.2823606383756</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>412.2823606383756</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.2170914602859</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5743,16 +5743,16 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514088</v>
@@ -5761,43 +5761,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,7 +5819,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>410.8745301331619</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M21" t="n">
-        <v>841.8631140141288</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>1346.676219880509</v>
+        <v>1661.954360834045</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>383.3526312522299</v>
+        <v>557.4905621634939</v>
       </c>
       <c r="C22" t="n">
-        <v>383.3526312522299</v>
+        <v>388.554379235587</v>
       </c>
       <c r="D22" t="n">
-        <v>376.9270045185177</v>
+        <v>238.4377398232513</v>
       </c>
       <c r="E22" t="n">
-        <v>376.9270045185177</v>
+        <v>238.4377398232513</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>238.4377398232513</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V22" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W22" t="n">
-        <v>785.7936752259998</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="X22" t="n">
-        <v>785.7936752259998</v>
+        <v>959.9316061372638</v>
       </c>
       <c r="Y22" t="n">
-        <v>565.0010960824696</v>
+        <v>739.1390269937336</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
@@ -5980,61 +5980,61 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3927.865363461247</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C25" t="n">
-        <v>3927.865363461247</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D25" t="n">
-        <v>3777.748724048912</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E25" t="n">
-        <v>3777.748724048912</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>3777.748724048912</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368732</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4669.057499606719</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>4445.272084396225</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>4445.272084396225</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V25" t="n">
-        <v>4445.272084396225</v>
+        <v>844.0280401273998</v>
       </c>
       <c r="W25" t="n">
-        <v>4155.854914359265</v>
+        <v>579.9622704339253</v>
       </c>
       <c r="X25" t="n">
-        <v>3927.865363461247</v>
+        <v>579.9622704339253</v>
       </c>
       <c r="Y25" t="n">
-        <v>3927.865363461247</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="26">
@@ -6205,73 +6205,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514097</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>218.4033802145335</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>367.4730644165934</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>614.2381923230575</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>921.5583256030193</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1725.96990386717</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2005.509969085867</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799365</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247865</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383447</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V28" t="n">
-        <v>675.0071030383447</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W28" t="n">
-        <v>385.5899330013841</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028589</v>
@@ -6493,22 +6493,22 @@
         <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3757.184212542244</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C31" t="n">
-        <v>3757.184212542244</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D31" t="n">
-        <v>3757.184212542244</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E31" t="n">
-        <v>3609.27111895985</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F31" t="n">
-        <v>3462.38117146194</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G31" t="n">
-        <v>3462.38117146194</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>4749.779469576119</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U31" t="n">
-        <v>4460.650830789677</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V31" t="n">
-        <v>4205.966342583791</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W31" t="n">
-        <v>4205.966342583791</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X31" t="n">
-        <v>3977.976791685774</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y31" t="n">
-        <v>3757.184212542244</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="32">
@@ -6700,10 +6700,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6779,22 +6779,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>841.8631140141293</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>514.9365816937665</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C34" t="n">
-        <v>505.7582697485844</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D34" t="n">
         <v>355.6416303362487</v>
@@ -6894,16 +6894,16 @@
         <v>986.0022165609669</v>
       </c>
       <c r="V34" t="n">
-        <v>986.0022165609669</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W34" t="n">
-        <v>696.5850465240062</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X34" t="n">
-        <v>696.5850465240062</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="Y34" t="n">
-        <v>696.5850465240062</v>
+        <v>355.6416303362487</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6958,31 +6958,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3944.179992107155</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C37" t="n">
-        <v>3775.243809179248</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D37" t="n">
-        <v>3775.243809179248</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E37" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F37" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>4682.090760935144</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4682.090760935144</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>4392.962122148702</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V37" t="n">
-        <v>4392.962122148702</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W37" t="n">
-        <v>4392.962122148702</v>
+        <v>496.6650364395585</v>
       </c>
       <c r="X37" t="n">
-        <v>4164.972571250685</v>
+        <v>268.6754855415411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3944.179992107155</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="38">
@@ -7153,19 +7153,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,10 +7174,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7195,7 +7195,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7256,19 +7256,19 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>498.905640096559</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>745.6707680030231</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4093.25603081147</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C40" t="n">
-        <v>3924.319847883563</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D40" t="n">
-        <v>3924.319847883563</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E40" t="n">
-        <v>3777.748724048912</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F40" t="n">
-        <v>3777.748724048912</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368732</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>4637.069157803799</v>
+        <v>1416.861478263555</v>
       </c>
       <c r="U40" t="n">
-        <v>4347.940519017357</v>
+        <v>1127.732839477114</v>
       </c>
       <c r="V40" t="n">
-        <v>4093.25603081147</v>
+        <v>873.0483512712267</v>
       </c>
       <c r="W40" t="n">
-        <v>4093.25603081147</v>
+        <v>583.631181234266</v>
       </c>
       <c r="X40" t="n">
-        <v>4093.25603081147</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="Y40" t="n">
-        <v>4093.25603081147</v>
+        <v>355.6416303362487</v>
       </c>
     </row>
     <row r="41">
@@ -7396,22 +7396,22 @@
         <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155898</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080548</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822473</v>
       </c>
       <c r="I41" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514088</v>
@@ -7420,10 +7420,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643324</v>
@@ -7432,10 +7432,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231265</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M42" t="n">
-        <v>1470.815640507007</v>
+        <v>841.8631140141293</v>
       </c>
       <c r="N42" t="n">
-        <v>1800.678268171039</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O42" t="n">
-        <v>2080.218333389736</v>
+        <v>1925.814757496978</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>563.7235151749151</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C43" t="n">
-        <v>563.7235151749151</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D43" t="n">
-        <v>563.7235151749151</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E43" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
         <v>507.4972331799365</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1107.825173417763</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U43" t="n">
-        <v>1107.825173417763</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V43" t="n">
-        <v>853.1406852118757</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W43" t="n">
-        <v>563.7235151749151</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X43" t="n">
-        <v>563.7235151749151</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.7235151749151</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155903</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514088</v>
@@ -7657,10 +7657,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643324</v>
@@ -7672,16 +7672,16 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121732</v>
@@ -7693,7 +7693,7 @@
         <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>233.7852434110083</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M45" t="n">
-        <v>1503.408902298185</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962217</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>807.0580565471723</v>
+        <v>324.384017443268</v>
       </c>
       <c r="C46" t="n">
-        <v>638.1218736192654</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="D46" t="n">
-        <v>488.0052342069297</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="E46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
         <v>507.4972331799365</v>
@@ -7842,16 +7842,16 @@
         <v>1498.916270557903</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557903</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W46" t="n">
-        <v>1209.499100520942</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.499100520942</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y46" t="n">
-        <v>988.7065213774121</v>
+        <v>506.0324822735078</v>
       </c>
     </row>
   </sheetData>
@@ -8060,22 +8060,22 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>219.3179524189599</v>
+        <v>149.0021003118939</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324504</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
         <v>387.9064735273546</v>
       </c>
       <c r="O3" t="n">
-        <v>124.673618687554</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
         <v>130.3661252938572</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>102.9473967948381</v>
+        <v>102.9473967948386</v>
       </c>
       <c r="K6" t="n">
-        <v>179.4793103847543</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>83.65043707503814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835743</v>
+        <v>180.3010716384419</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470468</v>
+        <v>437.6152809470454</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>107.7037345247344</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>15.83804904622843</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>288.4091825776756</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>124.3400780863221</v>
       </c>
       <c r="L15" t="n">
-        <v>288.409182577675</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>124.3400780863216</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>180.0237016735873</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298189</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>124.3400780863216</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>176.7176547498456</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>96.03744927814705</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>80.50021372615149</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>52.49733361305221</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445216</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,13 +10439,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>360.5026862907247</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445216</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>87.16935584025333</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11141,25 +11141,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>253.7371603504737</v>
+        <v>199.6230805871083</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445216</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>277.6717966208058</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.03075533675015</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>66.82312309190181</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>56.56881464599221</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>78.82781133359531</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>103.0576765518765</v>
       </c>
       <c r="U19" t="n">
-        <v>80.64233670084684</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>142.2541025518373</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>26.68512658404185</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24189,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>8.041707310105579</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>25.09788634005122</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271324</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>158.8051956154447</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24846,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>145.7203085977252</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>103.0576765518768</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>158.1602922728976</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>140.3133166869851</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25314,19 +25314,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>130.9089884290387</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>48.84084321165207</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>1.328550050264511</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>140.3133166869853</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>33.3868515673181</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>142.2525372770465</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>71.46831781370065</v>
+        <v>88.7855270220447</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26082,13 +26082,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>600801.4655374266</v>
+        <v>600801.4655374265</v>
       </c>
     </row>
     <row r="6">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642836</v>
+        <v>821041.7698642837</v>
       </c>
       <c r="D2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754174</v>
       </c>
       <c r="F2" t="n">
+        <v>782058.119475418</v>
+      </c>
+      <c r="G2" t="n">
+        <v>782058.1194754181</v>
+      </c>
+      <c r="H2" t="n">
         <v>782058.1194754178</v>
       </c>
-      <c r="G2" t="n">
-        <v>782058.1194754175</v>
-      </c>
-      <c r="H2" t="n">
-        <v>782058.1194754175</v>
-      </c>
       <c r="I2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="J2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="K2" t="n">
         <v>782058.119475418</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>782058.1194754179</v>
+      </c>
+      <c r="M2" t="n">
         <v>782058.1194754178</v>
       </c>
-      <c r="L2" t="n">
-        <v>782058.1194754177</v>
-      </c>
-      <c r="M2" t="n">
-        <v>782058.1194754177</v>
-      </c>
       <c r="N2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.119475418</v>
       </c>
       <c r="O2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.119475418</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754174</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703855</v>
+        <v>106137.1517703828</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252093</v>
+        <v>316711.9424252119</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.695895773285884e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113931</v>
+        <v>72254.69487113909</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313461</v>
+        <v>24677.2460931339</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817096</v>
+        <v>76496.15793817159</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,37 +26420,37 @@
         <v>283356.3453933829</v>
       </c>
       <c r="C4" t="n">
-        <v>252867.842625621</v>
+        <v>252867.8426256218</v>
       </c>
       <c r="D4" t="n">
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
+        <v>15045.66962143906</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15045.66962143905</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15045.66962143897</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15045.66962143902</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15045.66962143908</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15045.66962143906</v>
+      </c>
+      <c r="K4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15045.66962143909</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15045.66962143903</v>
       </c>
       <c r="L4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143903</v>
       </c>
       <c r="N4" t="n">
         <v>15045.6696214391</v>
@@ -26459,7 +26459,7 @@
         <v>15045.66962143902</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.66962143901</v>
+        <v>15045.669621439</v>
       </c>
     </row>
     <row r="5">
@@ -26472,28 +26472,28 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485726</v>
+        <v>58810.42201485707</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871667</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>360210.7035073073</v>
+        <v>360210.703507307</v>
       </c>
       <c r="C6" t="n">
-        <v>403226.3534534198</v>
+        <v>403226.3534534221</v>
       </c>
       <c r="D6" t="n">
-        <v>264695.7911244417</v>
+        <v>264695.791124439</v>
       </c>
       <c r="E6" t="n">
-        <v>149865.0874283658</v>
+        <v>148890.4961686439</v>
       </c>
       <c r="F6" t="n">
-        <v>675025.1239052621</v>
+        <v>674050.5326455403</v>
       </c>
       <c r="G6" t="n">
-        <v>675025.1239052619</v>
+        <v>674050.5326455408</v>
       </c>
       <c r="H6" t="n">
-        <v>675025.1239052619</v>
+        <v>674050.5326455403</v>
       </c>
       <c r="I6" t="n">
-        <v>675025.1239052619</v>
+        <v>674050.5326455407</v>
       </c>
       <c r="J6" t="n">
-        <v>602770.4290341231</v>
+        <v>601795.8377744013</v>
       </c>
       <c r="K6" t="n">
-        <v>650347.8778121273</v>
+        <v>649373.2865524066</v>
       </c>
       <c r="L6" t="n">
-        <v>598528.965967091</v>
+        <v>597554.374707369</v>
       </c>
       <c r="M6" t="n">
-        <v>540224.1086714248</v>
+        <v>539249.517411703</v>
       </c>
       <c r="N6" t="n">
-        <v>675025.1239052622</v>
+        <v>674050.5326455407</v>
       </c>
       <c r="O6" t="n">
-        <v>675025.1239052617</v>
+        <v>674050.5326455408</v>
       </c>
       <c r="P6" t="n">
-        <v>675025.1239052619</v>
+        <v>674050.5326455402</v>
       </c>
     </row>
   </sheetData>
@@ -26737,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593904</v>
+        <v>117.5602045593883</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541004</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464237</v>
+        <v>372.0396308464212</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26801,19 +26801,19 @@
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253574</v>
@@ -26822,16 +26822,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="P4" t="n">
         <v>1215.213643253574</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026503</v>
+        <v>82.53894384026292</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576963</v>
+        <v>260.1834596576984</v>
       </c>
       <c r="E3" t="n">
         <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406825</v>
+        <v>95.88311714406572</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081319</v>
+        <v>302.2476419081344</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023556</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406848</v>
+        <v>95.88311714406572</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081317</v>
+        <v>302.2476419081341</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406825</v>
+        <v>95.88311714406572</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081319</v>
+        <v>302.2476419081344</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>107.428427655702</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>179.8731282531555</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>51.59574476777948</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>32.33577761249958</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,22 +27511,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>87.76235574099513</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27545,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>116.7238167216225</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
@@ -27587,7 +27587,7 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>47.78481791206875</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
         <v>227.6757534850358</v>
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>334.8860652139203</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280907</v>
+        <v>192.2558301280911</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385213</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>39.08120952568339</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>35.85819717663742</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281871</v>
+        <v>80.69052336281887</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.4580015512969</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
         <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>102.816843583302</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>31.60931000517299</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,13 +27791,13 @@
         <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
-        <v>160.3423548015529</v>
+        <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>149.0752428504966</v>
+        <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3712176435846</v>
+        <v>78.37121764358487</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322644</v>
+        <v>68.41045236322677</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>167.7613787255181</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674583</v>
+        <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
-        <v>227.0397976882337</v>
+        <v>227.0397976882338</v>
       </c>
       <c r="U7" t="n">
         <v>286.3074660576818</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>103.2454430838116</v>
       </c>
     </row>
     <row r="8">
@@ -27855,16 +27855,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>59.66303108493923</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>234.1221861650002</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>128.0571403890125</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>77.93956364789699</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-5.893011311552516e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-5.893011311552516e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-5.893011311552516e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-5.893011311552516e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-5.893011311552516e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-5.893011311552516e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-5.893011311552516e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-5.893011311552516e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-5.893011311552516e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-5.893011311552516e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-5.893011311552516e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-5.893011311552516e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-5.893011311552516e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-5.893011311552516e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-5.893011311552516e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28338,16 +28338,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-3.468526220540144e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28575,16 +28575,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-3.468526220540144e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-1.932676241267473e-12</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-3.468526220540144e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,16 +28851,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29049,16 +29049,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29106,7 +29106,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="24">
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-7.07318341828168e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29532,7 +29532,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-1.506350599811412e-12</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>-5.430414738572741e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-5.430414738572741e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-5.430414738572741e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.221555270729305e-12</v>
+        <v>-5.430414738572741e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>-5.430414738572741e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>-1.037392394209746e-12</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>-5.430414738572741e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-5.430414738572741e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>-5.430414738572741e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-5.430414738572741e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>-8.045058871959617e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-8.045058871959617e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-8.045058871959617e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-8.045058871959617e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-8.045058871959617e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="H44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,16 +30747,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-8.045058871959617e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>-8.045058871959617e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-8.045058871959617e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-8.045058871959617e-14</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -30765,7 +30765,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>-1.607718096583367e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31047,7 +31047,7 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760119</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -31059,31 +31059,31 @@
         <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677232</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
         <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081217</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411506</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
         <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870377</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847512</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626978</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,28 +31120,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520187</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727678</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779989</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335884</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
         <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.0865870919233</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833408</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
         <v>17.92262575689049</v>
@@ -31150,10 +31150,10 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
         <v>1.399198482504676</v>
@@ -31162,7 +31162,7 @@
         <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,37 +31199,37 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227321</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174387</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894682</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948818</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394049</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179684</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938412</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587925</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
         <v>2.839592713390063</v>
@@ -31238,10 +31238,10 @@
         <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246845</v>
+        <v>0.472603837424676</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025551</v>
+        <v>4.840054050025465</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231516</v>
+        <v>18.22005944231484</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662336</v>
+        <v>40.11165994662264</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038481026</v>
+        <v>60.11698038480918</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439596</v>
+        <v>74.58043007439463</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819719</v>
+        <v>82.98509856819571</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422128009</v>
+        <v>84.32788422127858</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288837</v>
+        <v>79.62842981288695</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646646</v>
+        <v>67.96102257646524</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869493</v>
+        <v>51.03589764869402</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262836</v>
+        <v>29.68720080262783</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531501</v>
+        <v>10.76945994531482</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326557</v>
+        <v>2.06882329832652</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397475</v>
+        <v>0.03780830699397408</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560472</v>
+        <v>0.2528653456560427</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941298</v>
+        <v>2.442146890941255</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596363</v>
+        <v>8.706109488596207</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182857</v>
+        <v>23.89022987182814</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078373</v>
+        <v>40.83220803078299</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483604</v>
+        <v>54.90394270483506</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486773</v>
+        <v>64.07031148486659</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198271027</v>
+        <v>65.7660619827091</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106839</v>
+        <v>60.16309827106731</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496923</v>
+        <v>48.28619043496836</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128771</v>
+        <v>32.27803956128713</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134651</v>
+        <v>15.69983260134623</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707716</v>
+        <v>4.696862889707631</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359242</v>
+        <v>1.019224792359224</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368732</v>
+        <v>0.01663587800368702</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.21199381150054</v>
+        <v>0.2119938115005362</v>
       </c>
       <c r="H7" t="n">
-        <v>1.88481770588662</v>
+        <v>1.884817705886587</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761694</v>
+        <v>6.375232076761581</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308817</v>
+        <v>14.98796247308791</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342637</v>
+        <v>24.62982646342592</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072574</v>
+        <v>31.51769812072517</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094373</v>
+        <v>33.23099356094313</v>
       </c>
       <c r="N7" t="n">
-        <v>32.4408348089872</v>
+        <v>32.44083480898662</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736724</v>
+        <v>29.9643616473667</v>
       </c>
       <c r="P7" t="n">
-        <v>25.6396878927562</v>
+        <v>25.63968789275575</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846794</v>
+        <v>17.75159088846763</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651549</v>
+        <v>9.532012651651378</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513954</v>
+        <v>3.694473969513888</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477614</v>
+        <v>0.9057917400477452</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912037</v>
+        <v>0.01156329880912017</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,43 +32074,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424823</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>93.64045453795976</v>
+        <v>23.3246024308938</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34868,13 +34868,13 @@
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062264</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
         <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.9166388158319</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201084</v>
+        <v>28.16237059201012</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109945</v>
+        <v>164.1725419109934</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548592</v>
+        <v>256.4752296548578</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337569</v>
+        <v>302.1523988337555</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366733</v>
+        <v>292.2617450366718</v>
       </c>
       <c r="O5" t="n">
-        <v>230.330399653947</v>
+        <v>230.3303996539456</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926796</v>
+        <v>158.5267349926783</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843415013</v>
+        <v>41.04519843414921</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>82.47007944117907</v>
+        <v>167.4560060690026</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>287.1899082284201</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464237</v>
+        <v>102.2373492012902</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464237</v>
+        <v>372.0396308464212</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033535</v>
+        <v>311.4291731033524</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605762</v>
+        <v>232.7745516605753</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111153</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543513</v>
+        <v>2.360334637543072</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104188</v>
+        <v>59.10772338104131</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278432</v>
+        <v>72.81487052278372</v>
       </c>
       <c r="N7" t="n">
-        <v>76.5730071882158</v>
+        <v>76.5730071882152</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140692</v>
+        <v>54.54948956140638</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764969</v>
+        <v>22.91824715764923</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>326.2624260966948</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>570.7728848187837</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>274.9155166742614</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875336993</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>274.915516674261</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>490.4480787240536</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.226021517838</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>274.915516674261</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
-        <v>509.9122281478584</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>676.226021517838</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>429.2320226761599</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>122.4103926810582</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560244</v>
@@ -36685,19 +36685,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>334.8610358541604</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560244</v>
@@ -37159,13 +37159,13 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>693.6972596887376</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>237.7447944281926</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37861,25 +37861,25 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>460.8305752819984</v>
+        <v>406.7164955186331</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330529</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005179</v>
@@ -38104,7 +38104,7 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>588.0961736712721</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
